--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.461399999999992</v>
+        <v>5.486499999999994</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.6865</v>
+        <v>-11.4901</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7575</v>
+        <v>-11.7432</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.856800000000002</v>
+        <v>4.772200000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.97769999999999</v>
+        <v>-11.19539999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -627,15 +627,15 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.51749999999999</v>
+        <v>13.4064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.64470000000001</v>
+        <v>-22.59059999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>5.670300000000001</v>
+        <v>6.239399999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.301400000000003</v>
+        <v>9.495200000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.3083</v>
+        <v>13.6775</v>
       </c>
     </row>
     <row r="15">
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.16379999999999</v>
+        <v>-13.20289999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5391</v>
+        <v>13.39249999999999</v>
       </c>
     </row>
     <row r="20">
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.0967</v>
+        <v>-13.17050000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.51139999999999</v>
+        <v>13.35029999999999</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.057600000000005</v>
+        <v>4.807900000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.2197</v>
+        <v>-11.2567</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
